--- a/HardwareSemis.xlsx
+++ b/HardwareSemis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB0484-E0AC-4D62-A449-C2BE17A26A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2851225-C5D0-4952-AC84-2052831E71FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="0" windowWidth="26460" windowHeight="20880" activeTab="1" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" activeTab="2" xr2:uid="{98D8347A-DFA4-427C-8784-96E5573B433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Semiconductors" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Q421</t>
+  </si>
+  <si>
+    <t>Q123</t>
   </si>
 </sst>
 </file>
@@ -654,34 +657,34 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="O3">
-            <v>16070.752</v>
+            <v>15847</v>
           </cell>
         </row>
         <row r="5">
           <cell r="O5">
-            <v>179308</v>
+            <v>166333</v>
           </cell>
         </row>
         <row r="6">
           <cell r="O6">
-            <v>119691</v>
+            <v>109615</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="30">
-          <cell r="BU30">
+        <row r="36">
+          <cell r="BU36">
             <v>7.4999999999999997E-2</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="BU31">
+        <row r="37">
+          <cell r="BU37">
             <v>-0.01</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="BU33">
-            <v>176.50796544189615</v>
+        <row r="39">
+          <cell r="BU39">
+            <v>162.69801432678935</v>
           </cell>
         </row>
       </sheetData>
@@ -994,7 +997,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,11 +1052,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>156.19999999999999</v>
+        <v>266.69</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>384252</v>
+        <v>656057.4</v>
       </c>
       <c r="F3" s="6">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
@@ -1061,7 +1064,7 @@
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>382059</v>
+        <v>653864.4</v>
       </c>
       <c r="H3" s="6">
         <f>+[1]Main!$K$3</f>
@@ -1190,11 +1193,11 @@
         <v>8</v>
       </c>
       <c r="D11" s="4">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E11" s="6">
         <f>+D11*H11</f>
-        <v>131058</v>
+        <v>145620</v>
       </c>
       <c r="F11" s="6">
         <f>+[3]Main!$M$5-[3]Main!$M$6</f>
@@ -1202,7 +1205,7 @@
       </c>
       <c r="G11" s="6">
         <f>+E11-F11</f>
-        <v>127670</v>
+        <v>142232</v>
       </c>
       <c r="H11" s="6">
         <f>+[3]Main!$M$3</f>
@@ -1212,7 +1215,7 @@
         <v>119</v>
       </c>
       <c r="J11" s="10">
-        <v>44958</v>
+        <v>45048</v>
       </c>
       <c r="K11">
         <v>1969</v>
@@ -1493,11 +1496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F6CD82-B069-4824-8BA4-1B2E25134518}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1633,11 +1636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11ECA54-B59D-4EDC-8BE7-0C63EA165B15}">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1711,44 +1714,44 @@
         <v>17</v>
       </c>
       <c r="D3" s="4">
-        <v>154.5</v>
+        <v>165.02</v>
       </c>
       <c r="E3" s="6">
         <f>+D3*H3</f>
-        <v>2482931.1839999999</v>
+        <v>2615071.94</v>
       </c>
       <c r="F3" s="6">
         <f>+[5]Main!$O$5-[5]Main!$O$6</f>
-        <v>59617</v>
+        <v>56718</v>
       </c>
       <c r="G3" s="6">
         <f>+E3-F3</f>
-        <v>2423314.1839999999</v>
+        <v>2558353.94</v>
       </c>
       <c r="H3" s="6">
         <f>+[5]Main!$O$3</f>
-        <v>16070.752</v>
+        <v>15847</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J3" s="5">
-        <v>44961</v>
+        <v>45050</v>
       </c>
       <c r="K3" s="2">
-        <f>[5]Model!$BU$33</f>
-        <v>176.50796544189615</v>
+        <f>[5]Model!$BU$39</f>
+        <v>162.69801432678935</v>
       </c>
       <c r="L3" s="7">
         <f>+K3/D3-1</f>
-        <v>0.14244637826470008</v>
+        <v>-1.4070934875837215E-2</v>
       </c>
       <c r="M3" s="8">
-        <f>+[5]Model!$BU$30</f>
+        <f>+[5]Model!$BU$36</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N3" s="8">
-        <f>+[5]Model!$BU$31</f>
+        <f>+[5]Model!$BU$37</f>
         <v>-0.01</v>
       </c>
       <c r="O3" s="8">
